--- a/Patient Demogrpahics_Kanji_deid.xlsx
+++ b/Patient Demogrpahics_Kanji_deid.xlsx
@@ -558,12 +558,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0xB1FE70ACC836A4A6295C4D4F2A8B7421</t>
+          <t>0x5201D28D2689FB327B07BDB8508C82A225C78A707D246F5EE983902DCB7B0D56</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0xEF9A2259918FE875A29ADCAD81EA9012</t>
+          <t>Workbook Day</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -588,7 +588,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>26+27</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -648,12 +648,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0x4B2D2566BE9A167A20F6A006436E72C3</t>
+          <t>0x00DCA278763610FDB653A993A7D1EBC3E91340BD5FE0DD52C57016065F99C6A5</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0xEF9A2259918FE875A29ADCAD81EA9012</t>
+          <t>Workbook Day</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -738,12 +738,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0x88353BC7C39D2CA48F1D51B6E9E32B54</t>
+          <t>0xD67773B148947BE6FDFA677B9353F8C1B292A29698BF9A7500A02B7AA20ECC30</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0xEF9A2259918FE875A29ADCAD81EA9012</t>
+          <t>Workbook Day</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -828,12 +828,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0xD9DDC5B1AF8856AB8E4A8B88DB8438B2</t>
+          <t>0xB16A6CD812A3407A2A16D15BCCE4DCB942E148AFD12C4E37AEBF44E7134ED6DC</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0xEF9A2259918FE875A29ADCAD81EA9012</t>
+          <t>Workbook Day</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -918,12 +918,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0xDDF5686F7BDA659B28070E3F5B72B655</t>
+          <t>0x0D55170E1732ABC7375BA3476919F47153E32251DEF30AB32E648963AB6C45EE</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0xEF9A2259918FE875A29ADCAD81EA9012</t>
+          <t>Workbook Day</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1008,12 +1008,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0x2C058C4840C43179A157CB6971C41778</t>
+          <t>0x1BDACE481E4DE3BF133AA7BF5B7E5B7DFF6E67C145E9CAED4B81C8069950C299</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0xEF9A2259918FE875A29ADCAD81EA9012</t>
+          <t>Workbook Day</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1098,12 +1098,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>0xBC1677ED38BF398393BF3684217386E2</t>
+          <t>0x6E52DD87DE945127164A8C94BE53DAC9479E68FD7285AD5EB4C2FCBAD9F78449</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0xEF9A2259918FE875A29ADCAD81EA9012</t>
+          <t>Workbook Day</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1188,12 +1188,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>0x4927DC2EAA00F19820E4DEDE533CBA2B</t>
+          <t>0xBE31C5447D5EB7E08FFDA5645596A23979C22DFE3D753C76102893F986167BFA</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0xEF9A2259918FE875A29ADCAD81EA9012</t>
+          <t>Workbook Day</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1278,12 +1278,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>0x88ABC8772D5A80CE5F36B5FE01E26A47</t>
+          <t>0x5A80BDB575E717B6A89479A81260A841A3AAD7D1D88C77B4C9A8CDC77E561C4B</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0xEF9A2259918FE875A29ADCAD81EA9012</t>
+          <t>Workbook Day</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1368,12 +1368,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>0xB0BB3C51B0BC754FBB91B8D60E71B72E</t>
+          <t>0x2217A4B4AE12CFC968CCCC822A1E725081C54E73211E6FA58039A00F3B5D56A5</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0xEF9A2259918FE875A29ADCAD81EA9012</t>
+          <t>Workbook Day</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1458,12 +1458,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>0x6CF16CC26A99F006F32DC37BC22C87A1</t>
+          <t>0xBB87E0D049627B98E8B57206D3050AE5380398EB0000F28239B0D863915B3437</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0xEF9A2259918FE875A29ADCAD81EA9012</t>
+          <t>Workbook Day</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1548,12 +1548,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>0x94DD916338E93293E6BB12327BD15C7A</t>
+          <t>0xA8346467F0D4A489AA19A2E98D0F69E2CB05D3AB99E8F9598ED67113E42C0C61</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0xEF9A2259918FE875A29ADCAD81EA9012</t>
+          <t>Workbook Day</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1638,12 +1638,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>0x6E5D2684E1DAC784819838C1CF8EB6E7</t>
+          <t>0x10A0E4ED917EEA7D3A70C85448C7BAF8760340F1BDD035EC729AE1395E96BF1E</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0xEF9A2259918FE875A29ADCAD81EA9012</t>
+          <t>Workbook Day</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1728,12 +1728,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>0xC969D119D627315B98909E51024E0928</t>
+          <t>0xF5322BACC192DD13DD6FE45FD53BEF7A125B3EDFB74023145F73A4D9A3351F3A</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0xEF9A2259918FE875A29ADCAD81EA9012</t>
+          <t>Workbook Day</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1818,12 +1818,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>0x59B7CFDDF6F0E3BA9F3E00DA9EDE7052</t>
+          <t>0xD4C074E3B39855F7E388E1412A7CA9AB0D33F6514BB492EB3ABAC05F3443A7B6</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0xEF9A2259918FE875A29ADCAD81EA9012</t>
+          <t>Workbook Day</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1908,12 +1908,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>0x8405E86F2674E312E4211ADE115EFE1B</t>
+          <t>0x6C55EDA23B95C335C0499BFE9E8F0A759D33234FAABA4981E9CA3A4567F6CAD1</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0xEF9A2259918FE875A29ADCAD81EA9012</t>
+          <t>Workbook Day</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1998,12 +1998,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>0x21E889BCF630101597D5937CCF8D136E</t>
+          <t>0x6D1E7C1A705A9CBFE3FFC96EAFBC7B1E7AE727A886C6968F560E938CE80895DD</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0xEF9A2259918FE875A29ADCAD81EA9012</t>
+          <t>Workbook Day</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2088,12 +2088,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>0xFAECD25D0EDBE345D416D227512C538A</t>
+          <t>0x15401A52265D39AE33BEBD3F57E834F441FF806C6638A4384A5663E2F49C4041</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0xEF9A2259918FE875A29ADCAD81EA9012</t>
+          <t>Workbook Day</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2178,12 +2178,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>0x47C85C9EDE76737D67E26EB94ED66B41</t>
+          <t>0x2BB0BD05A39E174719BF39B54292A1EB0B5FAD5BFD31DB850092EBFCB7733270</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0xEF9A2259918FE875A29ADCAD81EA9012</t>
+          <t>Workbook Day</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2268,12 +2268,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>0x06ABDA1105444515EAFEA2676526813A</t>
+          <t>0x67FCA1827C88F79C4D36952CBEE5911D780921020ABA446991B54C9D68C64F08</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0xEF9A2259918FE875A29ADCAD81EA9012</t>
+          <t>Workbook Day</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2358,12 +2358,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>0x4F0E7AA9F8144CB9657AD9447A1D5012</t>
+          <t>0xE2939A76B56E199CAF7B110EB38EB1EC74F6F6B4E5E81CC3572D9EBB5CD81E69</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0xEF9A2259918FE875A29ADCAD81EA9012</t>
+          <t>Workbook Day</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2448,12 +2448,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>0xCD974D81B2C6AD5306C74F5448D1AB73</t>
+          <t>0xE617027AA7C34430A7A50C3E9D7661754450268A9687E5FAB3217E1BD41776EB</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0xEF9A2259918FE875A29ADCAD81EA9012</t>
+          <t>Workbook Day</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2538,12 +2538,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>0xD4BCCD449CBA87AAC85BAE18570F5430</t>
+          <t>0xD56C794D5DBD5D091F61B0E4658E72AD2C07C6553BA1CEEE6B265C0D80BA8F77</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0xEF9A2259918FE875A29ADCAD81EA9012</t>
+          <t>Workbook Day</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2628,12 +2628,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>0x2719D7687B8E83E0281126B7CA0100AF</t>
+          <t>0x37A70A96D181FCABED84358339D83682C89FAA354A4900D9F27C9B089F90FEE5</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0xEF9A2259918FE875A29ADCAD81EA9012</t>
+          <t>Workbook Day</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2718,12 +2718,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>0xE26A561C9540F5FB889553E1798F38A9</t>
+          <t>0x124E915B48BF235E1865C540DD26EB9DDF4BBA5C563B338AF22C21FBE85E67DB</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0xEF9A2259918FE875A29ADCAD81EA9012</t>
+          <t>Workbook Day</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2808,12 +2808,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>0x2E2ADC104574821B2F57173187345287</t>
+          <t>0x6ABC557251E2312DA357A1AA70EB63A27D75F5294E62B890CF71BCD3221A9A74</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0xEF9A2259918FE875A29ADCAD81EA9012</t>
+          <t>Workbook Day</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2898,12 +2898,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>0xCF6DE48A119303F7299A16DD6305CAA6</t>
+          <t>0x3A8D45DBFD1E8381FC97FDA62A4F8E0FE446D73692C2A10D005DFE7F223CB2D8</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0xEF9A2259918FE875A29ADCAD81EA9012</t>
+          <t>Workbook Day</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2988,12 +2988,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>0xB6FA9A084BDCD47BD17A374831D80AC7</t>
+          <t>0xE05185430E1400B9573CEAAE695E4F2862343330588F8806F4C2AB46C322D3CA</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0xEF9A2259918FE875A29ADCAD81EA9012</t>
+          <t>Workbook Day</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3078,12 +3078,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>0x4284FD3F8D9E623B431256F72613584F</t>
+          <t>0xD22160ACBDB94A845A7B0474AF2730BC013F2E6C6C1F8D21D6722C67C2ACF52C</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0xEF9A2259918FE875A29ADCAD81EA9012</t>
+          <t>Workbook Day</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -3168,12 +3168,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>0xE88DCE634FAE7CD6832DF5002631340C</t>
+          <t>0xAD577C8030673352CCB53AFED46BD37D95D2E45D8768D85EBF08E5E641E6E39C</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0xEF9A2259918FE875A29ADCAD81EA9012</t>
+          <t>Workbook Day</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -3258,12 +3258,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>0x2D218D11DF496705C59535AA3BA18491</t>
+          <t>0xEFA9C5AD58575C9B7110B892EDA8E4A0000415D8ABF2ED7DF9D20734459C1DB8</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0xEF9A2259918FE875A29ADCAD81EA9012</t>
+          <t>Workbook Day</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -3348,12 +3348,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>0xD0FCA15DDE95B472E949C3DD0ECAF18C</t>
+          <t>0xD3DB0AFDF27E818DA017FADD81C218C7ABDA26352A4EA54CDFCEE5AFBA0E5A1F</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0xEF9A2259918FE875A29ADCAD81EA9012</t>
+          <t>Workbook Day</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -3438,12 +3438,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>0x8BFC0AABECA9C09DF0D6A4141097FBF0</t>
+          <t>0x3E50F7A056CE2B9428FFD444839B7C0FB3CC43FB6A3A1CF4993DB3C914EAB051</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0xEF9A2259918FE875A29ADCAD81EA9012</t>
+          <t>Workbook Day</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -3528,12 +3528,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>0x2BAC819F406347CB2A2826FA683BE558</t>
+          <t>0x93BA12C2B887FF86FE0CA09E5EF92C2F339C9E26F5B9F59CCE2F5DED13815F32</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0xEF9A2259918FE875A29ADCAD81EA9012</t>
+          <t>Workbook Day</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -3618,12 +3618,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>0xBCF0F8A3AB79F250E12824C71E4C09F3</t>
+          <t>0x8C2056A26F18A25E832A03A92CFA475BA88C75F51713B3B8F8245F0747EA34F7</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0xEF9A2259918FE875A29ADCAD81EA9012</t>
+          <t>Workbook Day</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -3708,12 +3708,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>0x83431E9687065801F1B395AC021580AD</t>
+          <t>0x3AA8F45F6D1F99F7C5B3F350B40473DD631C186A87146D1A820B0EF01646F95F</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0xEF9A2259918FE875A29ADCAD81EA9012</t>
+          <t>Workbook Day</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -3798,12 +3798,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>0x5EE8AA61EE92DEC5FE2A0A957A393075</t>
+          <t>0xAE2D6C873DD598321583B0D18135DEC9BBD648D47B3992FDE3AB01162B08435E</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0xEF9A2259918FE875A29ADCAD81EA9012</t>
+          <t>Workbook Day</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -3888,12 +3888,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>0x40797CBC3BD8AD3BB7AF5E37F36AE964</t>
+          <t>0x28CBB83D083F5B9E5515D4426F99A6BE1FFBCE0856724C1100266F07D906F29A</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0xEF9A2259918FE875A29ADCAD81EA9012</t>
+          <t>Workbook Day</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -3978,12 +3978,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>0x118CA349254F9A4A7FC495C96A14C74E</t>
+          <t>0xC730F0DAC77E78A9AE6AC677F3870FF94AE3A0B73EBCA0C8783EDE78A0FA6AA9</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0xEF9A2259918FE875A29ADCAD81EA9012</t>
+          <t>Workbook Day</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -4068,12 +4068,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>0xC43B6590989BFE6B67278BBB38A9D91A</t>
+          <t>0xF81B145B32C8AB688CA14D45B96AEC54A112C7F9D712121D7D761BC85C80E686</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0xEF9A2259918FE875A29ADCAD81EA9012</t>
+          <t>Workbook Day</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -4158,12 +4158,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>0x8184C99D8B90C10217624781DC6B91C8</t>
+          <t>0x83B683A0A4517F4C9ED769FC2FE0F983D09E46482BAD685E65720DE5C9EBE906</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0xEF9A2259918FE875A29ADCAD81EA9012</t>
+          <t>Workbook Day</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -4248,12 +4248,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>0x7D67B493BFD0726D0DD784CA9AAEA7AC</t>
+          <t>0x57406B3E4D742B3A4DB8565E426AE33ABD0690A56FF048BB55499D7687417CC3</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0xEF9A2259918FE875A29ADCAD81EA9012</t>
+          <t>Workbook Day</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -4338,12 +4338,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>0x7112FB33D6103FA9594A476901FD1CB4</t>
+          <t>0x547F9CF66B36CADA891C81D557B3F2791450C71019B2E6EB6F08EECFF3A1E882</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0xEF9A2259918FE875A29ADCAD81EA9012</t>
+          <t>Workbook Day</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -4428,12 +4428,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>0x7EF025D076FDD97F64F8FE9C9DD932A0</t>
+          <t>0x621EA20D5A5703649CA5DCDA924060E0F19E78148FB2902BF5BCDF4B6A347B73</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0xEF9A2259918FE875A29ADCAD81EA9012</t>
+          <t>Workbook Day</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -4518,12 +4518,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>0xF714C1C5DDB7ECF3EA3BD3DD92E636F3</t>
+          <t>0xB224F1C5BBFCD71058A2102925F5FCBE654823378C91871CCE715974FA1F1A97</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0xEF9A2259918FE875A29ADCAD81EA9012</t>
+          <t>Workbook Day</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -4608,12 +4608,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>0x37C930753C6EB208D8C025CE08358BC2</t>
+          <t>0xFD3CFBD47280C2EAE9D585F4D314ABD927730B3832F26D0C22E4844B95E3632E</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0xEF9A2259918FE875A29ADCAD81EA9012</t>
+          <t>Workbook Day</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -4698,12 +4698,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>0x27CE8163B38654D0BC2206F213CAE19E</t>
+          <t>0xEC7AF8F9C1D038A12A74C329D151E37A61F9DC70D0185336F0A35D337268B163</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0xEF9A2259918FE875A29ADCAD81EA9012</t>
+          <t>Workbook Day</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -4788,12 +4788,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>0xE8AC0C463C96D5C1DA27DD785DECEEAA</t>
+          <t>0xAD1EA3DF73E4E9527B906AF5FA9136E80BF39EA5736546C9CA15E1DE0500AC4E</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0xEF9A2259918FE875A29ADCAD81EA9012</t>
+          <t>Workbook Day</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -4878,12 +4878,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>0xA992FADAE28D801588649483B11BC7EE</t>
+          <t>0x0B0D44EA00019F27BC4B228CBF8C6851373E143D39B66C274E16C71B968277B6</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0xEF9A2259918FE875A29ADCAD81EA9012</t>
+          <t>Workbook Day</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -4968,12 +4968,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>0x540256BE3B2CCA5899D3969BDF6E19D4</t>
+          <t>0x42537AB3042B154CA63274E9EC23D1445CB8409DD262DF900D80B3CBEF9E37F6</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0xEF9A2259918FE875A29ADCAD81EA9012</t>
+          <t>Workbook Day</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
